--- a/natmiOut/OldD4/LR-pairs_lrc2p/Col1a1-Cd44.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Col1a1-Cd44.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Cd44</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.8875026209887</v>
+        <v>15.36533633333333</v>
       </c>
       <c r="H2">
-        <v>6.8875026209887</v>
+        <v>46.096009</v>
       </c>
       <c r="I2">
-        <v>0.002895629900217423</v>
+        <v>0.005906911296689244</v>
       </c>
       <c r="J2">
-        <v>0.002895629900217423</v>
+        <v>0.005956412980416435</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.2438410521799</v>
+        <v>21.084959</v>
       </c>
       <c r="N2">
-        <v>17.2438410521799</v>
+        <v>63.25487699999999</v>
       </c>
       <c r="O2">
-        <v>0.03080995087263063</v>
+        <v>0.03381320693734752</v>
       </c>
       <c r="P2">
-        <v>0.03080995087263063</v>
+        <v>0.03509122472428063</v>
       </c>
       <c r="Q2">
-        <v>118.7670004428016</v>
+        <v>323.9774866095436</v>
       </c>
       <c r="R2">
-        <v>118.7670004428016</v>
+        <v>2915.797379485893</v>
       </c>
       <c r="S2">
-        <v>8.921421497101912E-05</v>
+        <v>0.0001997316140355092</v>
       </c>
       <c r="T2">
-        <v>8.921421497101912E-05</v>
+        <v>0.0002090178264464152</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.8875026209887</v>
+        <v>15.36533633333333</v>
       </c>
       <c r="H3">
-        <v>6.8875026209887</v>
+        <v>46.096009</v>
       </c>
       <c r="I3">
-        <v>0.002895629900217423</v>
+        <v>0.005906911296689244</v>
       </c>
       <c r="J3">
-        <v>0.002895629900217423</v>
+        <v>0.005956412980416435</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>76.8272512362666</v>
+        <v>81.06331633333333</v>
       </c>
       <c r="N3">
-        <v>76.8272512362666</v>
+        <v>243.189949</v>
       </c>
       <c r="O3">
-        <v>0.1372689431029865</v>
+        <v>0.12999838843446</v>
       </c>
       <c r="P3">
-        <v>0.1372689431029865</v>
+        <v>0.1349118606466557</v>
       </c>
       <c r="Q3">
-        <v>529.1478942531436</v>
+        <v>1245.56511975706</v>
       </c>
       <c r="R3">
-        <v>529.1478942531436</v>
+        <v>11210.08607781354</v>
       </c>
       <c r="S3">
-        <v>0.0003974800560202518</v>
+        <v>0.0007678889491949081</v>
       </c>
       <c r="T3">
-        <v>0.0003974800560202518</v>
+        <v>0.000803590757967873</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.8875026209887</v>
+        <v>15.36533633333333</v>
       </c>
       <c r="H4">
-        <v>6.8875026209887</v>
+        <v>46.096009</v>
       </c>
       <c r="I4">
-        <v>0.002895629900217423</v>
+        <v>0.005906911296689244</v>
       </c>
       <c r="J4">
-        <v>0.002895629900217423</v>
+        <v>0.005956412980416435</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>131.584602902164</v>
+        <v>136.9994176666667</v>
       </c>
       <c r="N4">
-        <v>131.584602902164</v>
+        <v>410.998253</v>
       </c>
       <c r="O4">
-        <v>0.2351051102096407</v>
+        <v>0.2197011461990087</v>
       </c>
       <c r="P4">
-        <v>0.2351051102096407</v>
+        <v>0.2280050605000741</v>
       </c>
       <c r="Q4">
-        <v>906.2892973704118</v>
+        <v>2105.042129919142</v>
       </c>
       <c r="R4">
-        <v>906.2892973704118</v>
+        <v>18945.37916927228</v>
       </c>
       <c r="S4">
-        <v>0.0006807773868169482</v>
+        <v>0.0012977551823785</v>
       </c>
       <c r="T4">
-        <v>0.0006807773868169482</v>
+        <v>0.001358092301963276</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.8875026209887</v>
+        <v>15.36533633333333</v>
       </c>
       <c r="H5">
-        <v>6.8875026209887</v>
+        <v>46.096009</v>
       </c>
       <c r="I5">
-        <v>0.002895629900217423</v>
+        <v>0.005906911296689244</v>
       </c>
       <c r="J5">
-        <v>0.002895629900217423</v>
+        <v>0.005956412980416435</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>287.116449855948</v>
+        <v>316.292811</v>
       </c>
       <c r="N5">
-        <v>287.116449855948</v>
+        <v>948.878433</v>
       </c>
       <c r="O5">
-        <v>0.5129972891780739</v>
+        <v>0.5072276531881493</v>
       </c>
       <c r="P5">
-        <v>0.5129972891780739</v>
+        <v>0.5263990368430604</v>
       </c>
       <c r="Q5">
-        <v>1977.515300911813</v>
+        <v>4859.945420830432</v>
       </c>
       <c r="R5">
-        <v>1977.515300911813</v>
+        <v>43739.5087874739</v>
       </c>
       <c r="S5">
-        <v>0.001485450289274514</v>
+        <v>0.002996148754610253</v>
       </c>
       <c r="T5">
-        <v>0.001485450289274514</v>
+        <v>0.003135450055930715</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.8875026209887</v>
+        <v>15.36533633333333</v>
       </c>
       <c r="H6">
-        <v>6.8875026209887</v>
+        <v>46.096009</v>
       </c>
       <c r="I6">
-        <v>0.002895629900217423</v>
+        <v>0.005906911296689244</v>
       </c>
       <c r="J6">
-        <v>0.002895629900217423</v>
+        <v>0.005956412980416435</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>46.9120012692379</v>
+        <v>68.131198</v>
       </c>
       <c r="N6">
-        <v>46.9120012692379</v>
+        <v>136.262396</v>
       </c>
       <c r="O6">
-        <v>0.08381870663666834</v>
+        <v>0.1092596052410345</v>
       </c>
       <c r="P6">
-        <v>0.08381870663666834</v>
+        <v>0.07559281728592908</v>
       </c>
       <c r="Q6">
-        <v>323.1065316977013</v>
+        <v>1046.858772062927</v>
       </c>
       <c r="R6">
-        <v>323.1065316977013</v>
+        <v>6281.152632377564</v>
       </c>
       <c r="S6">
-        <v>0.0002427079531346894</v>
+        <v>0.000645386796470074</v>
       </c>
       <c r="T6">
-        <v>0.0002427079531346894</v>
+        <v>0.0004502620381081558</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2310.19956376667</v>
+        <v>2518.056722</v>
       </c>
       <c r="H7">
-        <v>2310.19956376667</v>
+        <v>7554.170166</v>
       </c>
       <c r="I7">
-        <v>0.9712494209333227</v>
+        <v>0.9680190120289646</v>
       </c>
       <c r="J7">
-        <v>0.9712494209333227</v>
+        <v>0.9761313009340347</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>17.2438410521799</v>
+        <v>21.084959</v>
       </c>
       <c r="N7">
-        <v>17.2438410521799</v>
+        <v>63.25487699999999</v>
       </c>
       <c r="O7">
-        <v>0.03080995087263063</v>
+        <v>0.03381320693734752</v>
       </c>
       <c r="P7">
-        <v>0.03080995087263063</v>
+        <v>0.03509122472428063</v>
       </c>
       <c r="Q7">
-        <v>39836.7140764078</v>
+        <v>53093.12274304439</v>
       </c>
       <c r="R7">
-        <v>39836.7140764078</v>
+        <v>477838.1046873995</v>
       </c>
       <c r="S7">
-        <v>0.02992414694402662</v>
+        <v>0.03273182717302207</v>
       </c>
       <c r="T7">
-        <v>0.02992414694402662</v>
+        <v>0.03425364284148061</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2310.19956376667</v>
+        <v>2518.056722</v>
       </c>
       <c r="H8">
-        <v>2310.19956376667</v>
+        <v>7554.170166</v>
       </c>
       <c r="I8">
-        <v>0.9712494209333227</v>
+        <v>0.9680190120289646</v>
       </c>
       <c r="J8">
-        <v>0.9712494209333227</v>
+        <v>0.9761313009340347</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>76.8272512362666</v>
+        <v>81.06331633333333</v>
       </c>
       <c r="N8">
-        <v>76.8272512362666</v>
+        <v>243.189949</v>
       </c>
       <c r="O8">
-        <v>0.1372689431029865</v>
+        <v>0.12999838843446</v>
       </c>
       <c r="P8">
-        <v>0.1372689431029865</v>
+        <v>0.1349118606466557</v>
       </c>
       <c r="Q8">
-        <v>177486.2822914155</v>
+        <v>204122.0286007624</v>
       </c>
       <c r="R8">
-        <v>177486.2822914155</v>
+        <v>1837098.257406862</v>
       </c>
       <c r="S8">
-        <v>0.1333223815009048</v>
+        <v>0.1258409115376835</v>
       </c>
       <c r="T8">
-        <v>0.1333223815009048</v>
+        <v>0.1316916900444512</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2310.19956376667</v>
+        <v>2518.056722</v>
       </c>
       <c r="H9">
-        <v>2310.19956376667</v>
+        <v>7554.170166</v>
       </c>
       <c r="I9">
-        <v>0.9712494209333227</v>
+        <v>0.9680190120289646</v>
       </c>
       <c r="J9">
-        <v>0.9712494209333227</v>
+        <v>0.9761313009340347</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>131.584602902164</v>
+        <v>136.9994176666667</v>
       </c>
       <c r="N9">
-        <v>131.584602902164</v>
+        <v>410.998253</v>
       </c>
       <c r="O9">
-        <v>0.2351051102096407</v>
+        <v>0.2197011461990087</v>
       </c>
       <c r="P9">
-        <v>0.2351051102096407</v>
+        <v>0.2280050605000741</v>
       </c>
       <c r="Q9">
-        <v>303986.6922229897</v>
+        <v>344972.3045656355</v>
       </c>
       <c r="R9">
-        <v>303986.6922229897</v>
+        <v>3104750.74109072</v>
       </c>
       <c r="S9">
-        <v>0.2283457021495786</v>
+        <v>0.2126748864851955</v>
       </c>
       <c r="T9">
-        <v>0.2283457021495786</v>
+        <v>0.2225628763254806</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2310.19956376667</v>
+        <v>2518.056722</v>
       </c>
       <c r="H10">
-        <v>2310.19956376667</v>
+        <v>7554.170166</v>
       </c>
       <c r="I10">
-        <v>0.9712494209333227</v>
+        <v>0.9680190120289646</v>
       </c>
       <c r="J10">
-        <v>0.9712494209333227</v>
+        <v>0.9761313009340347</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>287.116449855948</v>
+        <v>316.292811</v>
       </c>
       <c r="N10">
-        <v>287.116449855948</v>
+        <v>948.878433</v>
       </c>
       <c r="O10">
-        <v>0.5129972891780739</v>
+        <v>0.5072276531881493</v>
       </c>
       <c r="P10">
-        <v>0.5129972891780739</v>
+        <v>0.5263990368430604</v>
       </c>
       <c r="Q10">
-        <v>663296.2972074461</v>
+        <v>796443.2388588254</v>
       </c>
       <c r="R10">
-        <v>663296.2972074461</v>
+        <v>7167989.14972943</v>
       </c>
       <c r="S10">
-        <v>0.4982483200545685</v>
+        <v>0.4910060117129626</v>
       </c>
       <c r="T10">
-        <v>0.4982483200545685</v>
+        <v>0.5138345766440394</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2310.19956376667</v>
+        <v>2518.056722</v>
       </c>
       <c r="H11">
-        <v>2310.19956376667</v>
+        <v>7554.170166</v>
       </c>
       <c r="I11">
-        <v>0.9712494209333227</v>
+        <v>0.9680190120289646</v>
       </c>
       <c r="J11">
-        <v>0.9712494209333227</v>
+        <v>0.9761313009340347</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>46.9120012692379</v>
+        <v>68.131198</v>
       </c>
       <c r="N11">
-        <v>46.9120012692379</v>
+        <v>136.262396</v>
       </c>
       <c r="O11">
-        <v>0.08381870663666834</v>
+        <v>0.1092596052410345</v>
       </c>
       <c r="P11">
-        <v>0.08381870663666834</v>
+        <v>0.07559281728592908</v>
       </c>
       <c r="Q11">
-        <v>108376.0848676149</v>
+        <v>171558.2211018129</v>
       </c>
       <c r="R11">
-        <v>108376.0848676149</v>
+        <v>1029349.326610878</v>
       </c>
       <c r="S11">
-        <v>0.08140887028424418</v>
+        <v>0.1057653751201009</v>
       </c>
       <c r="T11">
-        <v>0.08140887028424418</v>
+        <v>0.07378851507858274</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>61.49820118108</v>
+        <v>1.521120333333333</v>
       </c>
       <c r="H12">
-        <v>61.49820118108</v>
+        <v>4.563361</v>
       </c>
       <c r="I12">
-        <v>0.02585494916645983</v>
+        <v>0.000584765779652879</v>
       </c>
       <c r="J12">
-        <v>0.02585494916645983</v>
+        <v>0.0005896662918198867</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.2438410521799</v>
+        <v>21.084959</v>
       </c>
       <c r="N12">
-        <v>17.2438410521799</v>
+        <v>63.25487699999999</v>
       </c>
       <c r="O12">
-        <v>0.03080995087263063</v>
+        <v>0.03381320693734752</v>
       </c>
       <c r="P12">
-        <v>0.03080995087263063</v>
+        <v>0.03509122472428063</v>
       </c>
       <c r="Q12">
-        <v>1060.465206161526</v>
+        <v>32.07275986239966</v>
       </c>
       <c r="R12">
-        <v>1060.465206161526</v>
+        <v>288.654838761597</v>
       </c>
       <c r="S12">
-        <v>0.0007965897136329895</v>
+        <v>1.977280631728216E-05</v>
       </c>
       <c r="T12">
-        <v>0.0007965897136329895</v>
+        <v>2.069211235858488E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>61.49820118108</v>
+        <v>1.521120333333333</v>
       </c>
       <c r="H13">
-        <v>61.49820118108</v>
+        <v>4.563361</v>
       </c>
       <c r="I13">
-        <v>0.02585494916645983</v>
+        <v>0.000584765779652879</v>
       </c>
       <c r="J13">
-        <v>0.02585494916645983</v>
+        <v>0.0005896662918198867</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>76.8272512362666</v>
+        <v>81.06331633333333</v>
       </c>
       <c r="N13">
-        <v>76.8272512362666</v>
+        <v>243.189949</v>
       </c>
       <c r="O13">
-        <v>0.1372689431029865</v>
+        <v>0.12999838843446</v>
       </c>
       <c r="P13">
-        <v>0.1372689431029865</v>
+        <v>0.1349118606466557</v>
       </c>
       <c r="Q13">
-        <v>4724.7377527173</v>
+        <v>123.3070587620655</v>
       </c>
       <c r="R13">
-        <v>4724.7377527173</v>
+        <v>1109.763528858589</v>
       </c>
       <c r="S13">
-        <v>0.003549081546061382</v>
+        <v>7.601860896649481E-05</v>
       </c>
       <c r="T13">
-        <v>0.003549081546061382</v>
+        <v>7.955297659003475E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>61.49820118108</v>
+        <v>1.521120333333333</v>
       </c>
       <c r="H14">
-        <v>61.49820118108</v>
+        <v>4.563361</v>
       </c>
       <c r="I14">
-        <v>0.02585494916645983</v>
+        <v>0.000584765779652879</v>
       </c>
       <c r="J14">
-        <v>0.02585494916645983</v>
+        <v>0.0005896662918198867</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>131.584602902164</v>
+        <v>136.9994176666667</v>
       </c>
       <c r="N14">
-        <v>131.584602902164</v>
+        <v>410.998253</v>
       </c>
       <c r="O14">
-        <v>0.2351051102096407</v>
+        <v>0.2197011461990087</v>
       </c>
       <c r="P14">
-        <v>0.2351051102096407</v>
+        <v>0.2280050605000741</v>
       </c>
       <c r="Q14">
-        <v>8092.216381609805</v>
+        <v>208.3925998675926</v>
       </c>
       <c r="R14">
-        <v>8092.216381609805</v>
+        <v>1875.533398808333</v>
       </c>
       <c r="S14">
-        <v>0.006078630673245197</v>
+        <v>0.0001284737120476945</v>
       </c>
       <c r="T14">
-        <v>0.006078630673245197</v>
+        <v>0.0001344468985412476</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>61.49820118108</v>
+        <v>1.521120333333333</v>
       </c>
       <c r="H15">
-        <v>61.49820118108</v>
+        <v>4.563361</v>
       </c>
       <c r="I15">
-        <v>0.02585494916645983</v>
+        <v>0.000584765779652879</v>
       </c>
       <c r="J15">
-        <v>0.02585494916645983</v>
+        <v>0.0005896662918198867</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>287.116449855948</v>
+        <v>316.292811</v>
       </c>
       <c r="N15">
-        <v>287.116449855948</v>
+        <v>948.878433</v>
       </c>
       <c r="O15">
-        <v>0.5129972891780739</v>
+        <v>0.5072276531881493</v>
       </c>
       <c r="P15">
-        <v>0.5129972891780739</v>
+        <v>0.5263990368430604</v>
       </c>
       <c r="Q15">
-        <v>17657.14519563856</v>
+        <v>481.119426099257</v>
       </c>
       <c r="R15">
-        <v>17657.14519563856</v>
+        <v>4330.074834893313</v>
       </c>
       <c r="S15">
-        <v>0.01326351883423079</v>
+        <v>0.0002966093740780683</v>
       </c>
       <c r="T15">
-        <v>0.01326351883423079</v>
+        <v>0.0003103997680728074</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>1.521120333333333</v>
+      </c>
+      <c r="H16">
+        <v>4.563361</v>
+      </c>
+      <c r="I16">
+        <v>0.000584765779652879</v>
+      </c>
+      <c r="J16">
+        <v>0.0005896662918198867</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>68.131198</v>
+      </c>
+      <c r="N16">
+        <v>136.262396</v>
+      </c>
+      <c r="O16">
+        <v>0.1092596052410345</v>
+      </c>
+      <c r="P16">
+        <v>0.07559281728592908</v>
+      </c>
+      <c r="Q16">
+        <v>103.6357506121593</v>
+      </c>
+      <c r="R16">
+        <v>621.814503672956</v>
+      </c>
+      <c r="S16">
+        <v>6.389127824333933E-05</v>
+      </c>
+      <c r="T16">
+        <v>4.457453625721203E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>1.449807</v>
+      </c>
+      <c r="H17">
+        <v>4.349421</v>
+      </c>
+      <c r="I17">
+        <v>0.00055735072506944</v>
+      </c>
+      <c r="J17">
+        <v>0.0005620214908777858</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>21.084959</v>
+      </c>
+      <c r="N17">
+        <v>63.25487699999999</v>
+      </c>
+      <c r="O17">
+        <v>0.03381320693734752</v>
+      </c>
+      <c r="P17">
+        <v>0.03509122472428063</v>
+      </c>
+      <c r="Q17">
+        <v>30.569121152913</v>
+      </c>
+      <c r="R17">
+        <v>275.122090376217</v>
+      </c>
+      <c r="S17">
+        <v>1.884581540345366E-05</v>
+      </c>
+      <c r="T17">
+        <v>1.972202243626761E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>1.449807</v>
+      </c>
+      <c r="H18">
+        <v>4.349421</v>
+      </c>
+      <c r="I18">
+        <v>0.00055735072506944</v>
+      </c>
+      <c r="J18">
+        <v>0.0005620214908777858</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>81.06331633333333</v>
+      </c>
+      <c r="N18">
+        <v>243.189949</v>
+      </c>
+      <c r="O18">
+        <v>0.12999838843446</v>
+      </c>
+      <c r="P18">
+        <v>0.1349118606466557</v>
+      </c>
+      <c r="Q18">
+        <v>117.526163463281</v>
+      </c>
+      <c r="R18">
+        <v>1057.735471169529</v>
+      </c>
+      <c r="S18">
+        <v>7.245469605180497E-05</v>
+      </c>
+      <c r="T18">
+        <v>7.58233650577295E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>1.449807</v>
+      </c>
+      <c r="H19">
+        <v>4.349421</v>
+      </c>
+      <c r="I19">
+        <v>0.00055735072506944</v>
+      </c>
+      <c r="J19">
+        <v>0.0005620214908777858</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>136.9994176666667</v>
+      </c>
+      <c r="N19">
+        <v>410.998253</v>
+      </c>
+      <c r="O19">
+        <v>0.2197011461990087</v>
+      </c>
+      <c r="P19">
+        <v>0.2280050605000741</v>
+      </c>
+      <c r="Q19">
+        <v>198.622714729057</v>
+      </c>
+      <c r="R19">
+        <v>1787.604432561513</v>
+      </c>
+      <c r="S19">
+        <v>0.0001224505931326045</v>
+      </c>
+      <c r="T19">
+        <v>0.0001281437440299314</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>1.449807</v>
+      </c>
+      <c r="H20">
+        <v>4.349421</v>
+      </c>
+      <c r="I20">
+        <v>0.00055735072506944</v>
+      </c>
+      <c r="J20">
+        <v>0.0005620214908777858</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>316.292811</v>
+      </c>
+      <c r="N20">
+        <v>948.878433</v>
+      </c>
+      <c r="O20">
+        <v>0.5072276531881493</v>
+      </c>
+      <c r="P20">
+        <v>0.5263990368430604</v>
+      </c>
+      <c r="Q20">
+        <v>458.563531437477</v>
+      </c>
+      <c r="R20">
+        <v>4127.071782937293</v>
+      </c>
+      <c r="S20">
+        <v>0.0002827037002796855</v>
+      </c>
+      <c r="T20">
+        <v>0.0002958475714831673</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>1.449807</v>
+      </c>
+      <c r="H21">
+        <v>4.349421</v>
+      </c>
+      <c r="I21">
+        <v>0.00055735072506944</v>
+      </c>
+      <c r="J21">
+        <v>0.0005620214908777858</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>68.131198</v>
+      </c>
+      <c r="N21">
+        <v>136.262396</v>
+      </c>
+      <c r="O21">
+        <v>0.1092596052410345</v>
+      </c>
+      <c r="P21">
+        <v>0.07559281728592908</v>
+      </c>
+      <c r="Q21">
+        <v>98.777087778786</v>
+      </c>
+      <c r="R21">
+        <v>592.662526672716</v>
+      </c>
+      <c r="S21">
+        <v>6.089592020189136E-05</v>
+      </c>
+      <c r="T21">
+        <v>4.248478787068992E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>64.854191</v>
+      </c>
+      <c r="H22">
+        <v>129.708382</v>
+      </c>
+      <c r="I22">
+        <v>0.02493196016962392</v>
+      </c>
+      <c r="J22">
+        <v>0.01676059830285119</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>21.084959</v>
+      </c>
+      <c r="N22">
+        <v>63.25487699999999</v>
+      </c>
+      <c r="O22">
+        <v>0.03381320693734752</v>
+      </c>
+      <c r="P22">
+        <v>0.03509122472428063</v>
+      </c>
+      <c r="Q22">
+        <v>1367.447958213169</v>
+      </c>
+      <c r="R22">
+        <v>8204.687749279014</v>
+      </c>
+      <c r="S22">
+        <v>0.0008430295285691995</v>
+      </c>
+      <c r="T22">
+        <v>0.0005881499215587477</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>64.854191</v>
+      </c>
+      <c r="H23">
+        <v>129.708382</v>
+      </c>
+      <c r="I23">
+        <v>0.02493196016962392</v>
+      </c>
+      <c r="J23">
+        <v>0.01676059830285119</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>81.06331633333333</v>
+      </c>
+      <c r="N23">
+        <v>243.189949</v>
+      </c>
+      <c r="O23">
+        <v>0.12999838843446</v>
+      </c>
+      <c r="P23">
+        <v>0.1349118606466557</v>
+      </c>
+      <c r="Q23">
+        <v>5257.29580057542</v>
+      </c>
+      <c r="R23">
+        <v>31543.77480345252</v>
+      </c>
+      <c r="S23">
+        <v>0.003241114642563255</v>
+      </c>
+      <c r="T23">
+        <v>0.002261203502588834</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>61.49820118108</v>
-      </c>
-      <c r="H16">
-        <v>61.49820118108</v>
-      </c>
-      <c r="I16">
-        <v>0.02585494916645983</v>
-      </c>
-      <c r="J16">
-        <v>0.02585494916645983</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>46.9120012692379</v>
-      </c>
-      <c r="N16">
-        <v>46.9120012692379</v>
-      </c>
-      <c r="O16">
-        <v>0.08381870663666834</v>
-      </c>
-      <c r="P16">
-        <v>0.08381870663666834</v>
-      </c>
-      <c r="Q16">
-        <v>2885.003691862672</v>
-      </c>
-      <c r="R16">
-        <v>2885.003691862672</v>
-      </c>
-      <c r="S16">
-        <v>0.002167128399289469</v>
-      </c>
-      <c r="T16">
-        <v>0.002167128399289469</v>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>64.854191</v>
+      </c>
+      <c r="H24">
+        <v>129.708382</v>
+      </c>
+      <c r="I24">
+        <v>0.02493196016962392</v>
+      </c>
+      <c r="J24">
+        <v>0.01676059830285119</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>136.9994176666667</v>
+      </c>
+      <c r="N24">
+        <v>410.998253</v>
+      </c>
+      <c r="O24">
+        <v>0.2197011461990087</v>
+      </c>
+      <c r="P24">
+        <v>0.2280050605000741</v>
+      </c>
+      <c r="Q24">
+        <v>8884.986400242773</v>
+      </c>
+      <c r="R24">
+        <v>53309.91840145664</v>
+      </c>
+      <c r="S24">
+        <v>0.005477580226254406</v>
+      </c>
+      <c r="T24">
+        <v>0.003821501230059025</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>64.854191</v>
+      </c>
+      <c r="H25">
+        <v>129.708382</v>
+      </c>
+      <c r="I25">
+        <v>0.02493196016962392</v>
+      </c>
+      <c r="J25">
+        <v>0.01676059830285119</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>316.292811</v>
+      </c>
+      <c r="N25">
+        <v>948.878433</v>
+      </c>
+      <c r="O25">
+        <v>0.5072276531881493</v>
+      </c>
+      <c r="P25">
+        <v>0.5263990368430604</v>
+      </c>
+      <c r="Q25">
+        <v>20512.9143765209</v>
+      </c>
+      <c r="R25">
+        <v>123077.4862591254</v>
+      </c>
+      <c r="S25">
+        <v>0.01264617964621875</v>
+      </c>
+      <c r="T25">
+        <v>0.008822762803534301</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>64.854191</v>
+      </c>
+      <c r="H26">
+        <v>129.708382</v>
+      </c>
+      <c r="I26">
+        <v>0.02493196016962392</v>
+      </c>
+      <c r="J26">
+        <v>0.01676059830285119</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>68.131198</v>
+      </c>
+      <c r="N26">
+        <v>136.262396</v>
+      </c>
+      <c r="O26">
+        <v>0.1092596052410345</v>
+      </c>
+      <c r="P26">
+        <v>0.07559281728592908</v>
+      </c>
+      <c r="Q26">
+        <v>4418.593728150818</v>
+      </c>
+      <c r="R26">
+        <v>17674.37491260327</v>
+      </c>
+      <c r="S26">
+        <v>0.002724056126018305</v>
+      </c>
+      <c r="T26">
+        <v>0.001266980845110283</v>
       </c>
     </row>
   </sheetData>
